--- a/data/trans_orig/P20B-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P20B-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>7325</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3426</v>
+        <v>3484</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12765</v>
+        <v>13019</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.309160138176599</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1446130649909392</v>
+        <v>0.147072364412618</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5387890674550844</v>
+        <v>0.5495039352798085</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -765,19 +765,19 @@
         <v>2868</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6818</v>
+        <v>6906</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1499130388934558</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04661255041478282</v>
+        <v>0.04669525362760308</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.356340835725233</v>
+        <v>0.3609357778901797</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -786,19 +786,19 @@
         <v>10193</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5314</v>
+        <v>5886</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16454</v>
+        <v>17121</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2380132703605431</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1240954515861352</v>
+        <v>0.1374363435671587</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3842252214595184</v>
+        <v>0.3997887083561968</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>16367</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10927</v>
+        <v>10673</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>20266</v>
+        <v>20208</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6908398618234011</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4612109325449156</v>
+        <v>0.4504960647201917</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8553869350090606</v>
+        <v>0.852927635587382</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>16</v>
@@ -836,19 +836,19 @@
         <v>16265</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>12315</v>
+        <v>12227</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>18241</v>
+        <v>18240</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8500869611065441</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.643659164274767</v>
+        <v>0.6390642221098203</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9533874495852173</v>
+        <v>0.9533047463723969</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>32</v>
@@ -857,19 +857,19 @@
         <v>32632</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>26371</v>
+        <v>25704</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>37511</v>
+        <v>36939</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7619867296394569</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6157747785404815</v>
+        <v>0.6002112916438032</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8759045484138647</v>
+        <v>0.8625636564328412</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>2804</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>802</v>
+        <v>824</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6614</v>
+        <v>6911</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1832556904197015</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05244857989103208</v>
+        <v>0.05387350006303308</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4323117748046297</v>
+        <v>0.4517028465136086</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -982,19 +982,19 @@
         <v>4061</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1012</v>
+        <v>991</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9589</v>
+        <v>8814</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1385180715538707</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03451370199570401</v>
+        <v>0.03378906945563267</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3270855780887587</v>
+        <v>0.3006539861608001</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>7</v>
@@ -1003,19 +1003,19 @@
         <v>6864</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3125</v>
+        <v>2876</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>12394</v>
+        <v>12988</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1538590307981327</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07004642920522579</v>
+        <v>0.06445548684800166</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2778095945337825</v>
+        <v>0.291120812560618</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>12495</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>8685</v>
+        <v>8388</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14497</v>
+        <v>14475</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8167443095802985</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5676882251953702</v>
+        <v>0.5482971534863926</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9475514201089679</v>
+        <v>0.946126499936967</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>24</v>
@@ -1053,19 +1053,19 @@
         <v>25255</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>19727</v>
+        <v>20502</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>28304</v>
+        <v>28325</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8614819284461294</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6729144219112412</v>
+        <v>0.6993460138391997</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9654862980042959</v>
+        <v>0.9662109305443674</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>36</v>
@@ -1074,19 +1074,19 @@
         <v>37751</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>32221</v>
+        <v>31627</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>41490</v>
+        <v>41739</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8461409692018672</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7221904054662174</v>
+        <v>0.7088791874393814</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9299535707947745</v>
+        <v>0.9355445131519983</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>7509</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3784</v>
+        <v>3719</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12186</v>
+        <v>12130</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3783614796650558</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.190666405194295</v>
+        <v>0.1873643576294848</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6140218759290217</v>
+        <v>0.6111804788465283</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -1199,19 +1199,19 @@
         <v>2804</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>820</v>
+        <v>727</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7163</v>
+        <v>6560</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.169426567708361</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0495338166433314</v>
+        <v>0.04392572135907783</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.432831890720188</v>
+        <v>0.3964232397424546</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>11</v>
@@ -1220,19 +1220,19 @@
         <v>10313</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5420</v>
+        <v>5620</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>15921</v>
+        <v>15870</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2833617433701606</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1489278169117178</v>
+        <v>0.1544223774729791</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4374280371774411</v>
+        <v>0.4360284764412408</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>12338</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7661</v>
+        <v>7717</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>16063</v>
+        <v>16128</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6216385203349443</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3859781240709783</v>
+        <v>0.3888195211534718</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.809333594805705</v>
+        <v>0.8126356423705152</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>12</v>
@@ -1270,19 +1270,19 @@
         <v>13745</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>9386</v>
+        <v>9989</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>15729</v>
+        <v>15822</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.830573432291639</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5671681092798119</v>
+        <v>0.6035767602575455</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9504661833566687</v>
+        <v>0.9560742786409222</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>25</v>
@@ -1291,19 +1291,19 @@
         <v>26083</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>20475</v>
+        <v>20526</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>30976</v>
+        <v>30776</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7166382566298394</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5625719628225588</v>
+        <v>0.5639715235587595</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8510721830882821</v>
+        <v>0.845577622527021</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>12139</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6754</v>
+        <v>7067</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18689</v>
+        <v>19059</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2153394903690208</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.119809568567962</v>
+        <v>0.1253735499136751</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3315451602242246</v>
+        <v>0.3381123088234011</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -1416,19 +1416,19 @@
         <v>11820</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6778</v>
+        <v>6532</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18381</v>
+        <v>18872</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1904642474163241</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1092246046530112</v>
+        <v>0.105258085887287</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2961846694468607</v>
+        <v>0.3040948424251667</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>26</v>
@@ -1437,19 +1437,19 @@
         <v>23959</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>16699</v>
+        <v>16481</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>34248</v>
+        <v>32895</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2023042351035172</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1410057171153182</v>
+        <v>0.1391626259340038</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2891860651770188</v>
+        <v>0.2777567718899052</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>44231</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>37681</v>
+        <v>37311</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>49616</v>
+        <v>49303</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7846605096309792</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6684548397757755</v>
+        <v>0.6618876911765985</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8801904314320381</v>
+        <v>0.8746264500863247</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>48</v>
@@ -1487,19 +1487,19 @@
         <v>50240</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>43679</v>
+        <v>43188</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>55282</v>
+        <v>55528</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8095357525836759</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7038153305531393</v>
+        <v>0.6959051575748332</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8907753953469891</v>
+        <v>0.8947419141127131</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>92</v>
@@ -1508,19 +1508,19 @@
         <v>94471</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>84182</v>
+        <v>85535</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>101731</v>
+        <v>101949</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7976957648964828</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7108139348229812</v>
+        <v>0.7222432281100948</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8589942828846818</v>
+        <v>0.8608373740659963</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>4505</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1745</v>
+        <v>1635</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8438</v>
+        <v>8429</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2972494500166643</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1151763485572637</v>
+        <v>0.1078878718131481</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5567696406752289</v>
+        <v>0.5562087556781052</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -1633,19 +1633,19 @@
         <v>8886</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4554</v>
+        <v>4681</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14631</v>
+        <v>15451</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2169668142548481</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1111842360391834</v>
+        <v>0.1142911265508916</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3572347147327887</v>
+        <v>0.3772776521164023</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>14</v>
@@ -1654,19 +1654,19 @@
         <v>13391</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7522</v>
+        <v>7965</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>20335</v>
+        <v>20821</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2386508554331581</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1340535676857178</v>
+        <v>0.1419543887504656</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3624091412754929</v>
+        <v>0.3710765141412254</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>10650</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6717</v>
+        <v>6726</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>13410</v>
+        <v>13520</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7027505499833357</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4432303593247713</v>
+        <v>0.443791244321895</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8848236514427363</v>
+        <v>0.8921121281868518</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>29</v>
@@ -1704,19 +1704,19 @@
         <v>32069</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>26324</v>
+        <v>25504</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>36401</v>
+        <v>36274</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7830331857451519</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.642765285267211</v>
+        <v>0.6227223478835977</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8888157639608165</v>
+        <v>0.8857088734491083</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>40</v>
@@ -1725,19 +1725,19 @@
         <v>42719</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>35775</v>
+        <v>35289</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>48588</v>
+        <v>48145</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.761349144566842</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6375908587245073</v>
+        <v>0.6289234858587747</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.865946432314282</v>
+        <v>0.8580456112495344</v>
       </c>
     </row>
     <row r="18">
@@ -1850,19 +1850,19 @@
         <v>19719</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>12955</v>
+        <v>13080</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>28739</v>
+        <v>28277</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2454038363189424</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1612235493438369</v>
+        <v>0.1627821729888013</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3576519526711993</v>
+        <v>0.3519083156696277</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>21</v>
@@ -1871,19 +1871,19 @@
         <v>20601</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>14215</v>
+        <v>13480</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>28974</v>
+        <v>28785</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2453312992023996</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1692768782783822</v>
+        <v>0.1605253768623386</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3450375159613092</v>
+        <v>0.3427871125626387</v>
       </c>
     </row>
     <row r="20">
@@ -1921,19 +1921,19 @@
         <v>60635</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>51615</v>
+        <v>52077</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>67399</v>
+        <v>67274</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7545961636810576</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6423480473288008</v>
+        <v>0.6480916843303725</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8387764506561631</v>
+        <v>0.8372178270111987</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>62</v>
@@ -1942,19 +1942,19 @@
         <v>63372</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>54999</v>
+        <v>55188</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>69758</v>
+        <v>70493</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7546687007976004</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.654962484038691</v>
+        <v>0.6572128874373607</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.830723121721618</v>
+        <v>0.8394746231376612</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>35163</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>24526</v>
+        <v>25427</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>45410</v>
+        <v>45453</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.262447049217092</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1830524697558018</v>
+        <v>0.18977884689868</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3389237593735156</v>
+        <v>0.3392457584281728</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>52</v>
@@ -2067,19 +2067,19 @@
         <v>50158</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>39060</v>
+        <v>38647</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>63100</v>
+        <v>63997</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2019519654144937</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1572661301764162</v>
+        <v>0.1556056068906921</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2540611946219508</v>
+        <v>0.2576700904987361</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>89</v>
@@ -2088,19 +2088,19 @@
         <v>85321</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>69399</v>
+        <v>69022</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>100473</v>
+        <v>101327</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2231504842371767</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1815077311453312</v>
+        <v>0.1805203362427505</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2627774922395265</v>
+        <v>0.2650107077365864</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>98819</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>88572</v>
+        <v>88529</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>109456</v>
+        <v>108555</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7375529507829081</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6610762406264841</v>
+        <v>0.6607542415718272</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8169475302441982</v>
+        <v>0.8102211531013199</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>189</v>
@@ -2138,19 +2138,19 @@
         <v>198209</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>185267</v>
+        <v>184370</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>209307</v>
+        <v>209720</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7980480345855063</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7459388053780496</v>
+        <v>0.742329909501264</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8427338698235841</v>
+        <v>0.844394393109308</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>287</v>
@@ -2159,19 +2159,19 @@
         <v>297028</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>281876</v>
+        <v>281022</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>312950</v>
+        <v>313327</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7768495157628234</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7372225077604736</v>
+        <v>0.734989292263414</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.818492268854669</v>
+        <v>0.8194796637572503</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>6076</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2036</v>
+        <v>2125</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11264</v>
+        <v>11653</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2867931376834866</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09607627799756267</v>
+        <v>0.100309777482827</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5316295700150453</v>
+        <v>0.5499952706665618</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -2526,19 +2526,19 @@
         <v>8539</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3423</v>
+        <v>4187</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14873</v>
+        <v>15409</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2610742142533832</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1046622363070511</v>
+        <v>0.1280158772884623</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4547334901943055</v>
+        <v>0.4711174123394948</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -2547,19 +2547,19 @@
         <v>14615</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8526</v>
+        <v>8642</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22539</v>
+        <v>23148</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2711847415461296</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1581918590227004</v>
+        <v>0.1603542475519681</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4182119396334558</v>
+        <v>0.4295180279144185</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>15111</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9923</v>
+        <v>9534</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>19151</v>
+        <v>19062</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7132068623165134</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4683704299849549</v>
+        <v>0.4500047293334377</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9039237220024373</v>
+        <v>0.8996902225171729</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>23</v>
@@ -2597,19 +2597,19 @@
         <v>24169</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>17835</v>
+        <v>17299</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>29285</v>
+        <v>28521</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7389257857466167</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5452665098056935</v>
+        <v>0.5288825876605048</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8953377636929487</v>
+        <v>0.8719841227115376</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>36</v>
@@ -2618,19 +2618,19 @@
         <v>39279</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>31355</v>
+        <v>30746</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>45368</v>
+        <v>45252</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7288152584538704</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.581788060366544</v>
+        <v>0.5704819720855813</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8418081409772995</v>
+        <v>0.8396457524480319</v>
       </c>
     </row>
     <row r="6">
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5242</v>
+        <v>5773</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.101876066773685</v>
@@ -2734,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3101889057195742</v>
+        <v>0.3416272126306224</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -2743,19 +2743,19 @@
         <v>4396</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1166</v>
+        <v>1152</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10088</v>
+        <v>9808</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1319461422576799</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0350013983050886</v>
+        <v>0.03459051904679053</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3027807945744276</v>
+        <v>0.2943754287983846</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -2764,19 +2764,19 @@
         <v>6118</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2174</v>
+        <v>2258</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>12151</v>
+        <v>12037</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1218274091438109</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0432965077600716</v>
+        <v>0.0449593972117434</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.241974000962955</v>
+        <v>0.2397142643879582</v>
       </c>
     </row>
     <row r="8">
@@ -2793,7 +2793,7 @@
         <v>15176</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>11656</v>
+        <v>11125</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>16898</v>
@@ -2802,7 +2802,7 @@
         <v>0.8981239332263149</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6898110942804223</v>
+        <v>0.6583727873693777</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -2814,19 +2814,19 @@
         <v>28922</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>23230</v>
+        <v>23510</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>32152</v>
+        <v>32166</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8680538577423201</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6972192054255724</v>
+        <v>0.7056245712016151</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9649986016949115</v>
+        <v>0.9654094809532093</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>40</v>
@@ -2835,19 +2835,19 @@
         <v>44098</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>38065</v>
+        <v>38179</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>48042</v>
+        <v>47958</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.878172590856189</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7580259990370452</v>
+        <v>0.7602857356120417</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9567034922399285</v>
+        <v>0.9550406027882566</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>14822</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8811</v>
+        <v>8725</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21827</v>
+        <v>22481</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3085346859946168</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1834007143236012</v>
+        <v>0.1816094137266175</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4543502588016671</v>
+        <v>0.4679497327326314</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -2960,19 +2960,19 @@
         <v>6337</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2954</v>
+        <v>2316</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11522</v>
+        <v>11664</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2763461269209671</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1288284399935473</v>
+        <v>0.1010045124003243</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5024054961963649</v>
+        <v>0.5086245907281457</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>20</v>
@@ -2981,19 +2981,19 @@
         <v>21160</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13676</v>
+        <v>13685</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>29319</v>
+        <v>29871</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2981338637314865</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1926846057691908</v>
+        <v>0.1928111780909111</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4130894493132194</v>
+        <v>0.420867236813815</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>33219</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>26214</v>
+        <v>25560</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>39230</v>
+        <v>39316</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6914653140053832</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5456497411983328</v>
+        <v>0.5320502672673686</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8165992856763987</v>
+        <v>0.8183905862733825</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>16</v>
@@ -3031,19 +3031,19 @@
         <v>16596</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>11411</v>
+        <v>11269</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>19979</v>
+        <v>20617</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7236538730790328</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4975945038036351</v>
+        <v>0.4913754092718545</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8711715600064528</v>
+        <v>0.8989954875996757</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>46</v>
@@ -3052,19 +3052,19 @@
         <v>49815</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>41656</v>
+        <v>41104</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>57299</v>
+        <v>57290</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7018661362685135</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5869105506867802</v>
+        <v>0.579132763186185</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8073153942308091</v>
+        <v>0.807188821909089</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>22759</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14767</v>
+        <v>15040</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>32044</v>
+        <v>32073</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3090035538737014</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2004992207567493</v>
+        <v>0.2041972418024435</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4350763005800479</v>
+        <v>0.4354719861397261</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>14</v>
@@ -3177,19 +3177,19 @@
         <v>15054</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8949</v>
+        <v>8565</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>23167</v>
+        <v>22701</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1895703079980015</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1126833247816137</v>
+        <v>0.1078581631864801</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.291726192169439</v>
+        <v>0.2858616482739009</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>35</v>
@@ -3198,19 +3198,19 @@
         <v>37813</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>28000</v>
+        <v>27762</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>51840</v>
+        <v>50982</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2470396484285579</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1829276887089177</v>
+        <v>0.1813741577667592</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.338680187340143</v>
+        <v>0.3330729520235041</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>50893</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>41608</v>
+        <v>41579</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>58885</v>
+        <v>58612</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6909964461262986</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5649236994199519</v>
+        <v>0.564528013860275</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7995007792432506</v>
+        <v>0.7958027581975566</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>59</v>
@@ -3248,19 +3248,19 @@
         <v>64359</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>56246</v>
+        <v>56712</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>70464</v>
+        <v>70848</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8104296920019985</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.708273807830561</v>
+        <v>0.7141383517260992</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8873166752183862</v>
+        <v>0.8921418368135199</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>108</v>
@@ -3269,19 +3269,19 @@
         <v>115252</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>101225</v>
+        <v>102083</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>125065</v>
+        <v>125303</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7529603515714421</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6613198126598571</v>
+        <v>0.6669270479764959</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8170723112910824</v>
+        <v>0.8186258422332406</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>13344</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8135</v>
+        <v>8157</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>20842</v>
+        <v>20263</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3502660844084082</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2135406466137601</v>
+        <v>0.2141215350582533</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5470883247670817</v>
+        <v>0.5318711112575111</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>26</v>
@@ -3394,19 +3394,19 @@
         <v>27877</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>19299</v>
+        <v>20418</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>37290</v>
+        <v>36459</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.352692849445748</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2441675594630491</v>
+        <v>0.2583273264922634</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4717817991159309</v>
+        <v>0.4612670669761288</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>38</v>
@@ -3415,19 +3415,19 @@
         <v>41221</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>30607</v>
+        <v>31088</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>52739</v>
+        <v>52290</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3519035800721242</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2612888648297507</v>
+        <v>0.2654003246954931</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4502313730596379</v>
+        <v>0.4464016723573365</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>24753</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>17255</v>
+        <v>17834</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>29962</v>
+        <v>29940</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6497339155915919</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4529116752329184</v>
+        <v>0.4681288887424889</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7864593533862401</v>
+        <v>0.7858784649417466</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>47</v>
@@ -3465,19 +3465,19 @@
         <v>51163</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>41750</v>
+        <v>42581</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>59741</v>
+        <v>58622</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6473071505542519</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5282182008840688</v>
+        <v>0.5387329330238712</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7558324405369509</v>
+        <v>0.7416726735077366</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>70</v>
@@ -3486,19 +3486,19 @@
         <v>75916</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>64398</v>
+        <v>64847</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>86530</v>
+        <v>86049</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6480964199278758</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5497686269403623</v>
+        <v>0.553598327642664</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7387111351702493</v>
+        <v>0.7345996753045073</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>3031</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>931</v>
+        <v>949</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5989</v>
+        <v>5986</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3846730995300318</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1181093291174832</v>
+        <v>0.1204736188685139</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7601011058074406</v>
+        <v>0.7597760615693809</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>18</v>
@@ -3611,19 +3611,19 @@
         <v>20060</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>12911</v>
+        <v>12007</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>29607</v>
+        <v>27950</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2360823792989807</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1519534243228831</v>
+        <v>0.1413130861891718</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3484468525275868</v>
+        <v>0.328948529273373</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>21</v>
@@ -3632,19 +3632,19 @@
         <v>23091</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>15457</v>
+        <v>15462</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>33332</v>
+        <v>32652</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2486915735533672</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1664714318542317</v>
+        <v>0.1665297402366916</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3589943030376438</v>
+        <v>0.3516762617592111</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>4848</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1890</v>
+        <v>1893</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6948</v>
+        <v>6930</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6153269004699683</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2398988941925594</v>
+        <v>0.2402239384306191</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8818906708825167</v>
+        <v>0.8795263811314862</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>63</v>
@@ -3682,19 +3682,19 @@
         <v>64909</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>55362</v>
+        <v>57019</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>72058</v>
+        <v>72962</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7639176207010192</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6515531474724132</v>
+        <v>0.6710514707266274</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8480465756771168</v>
+        <v>0.8586869138108284</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>68</v>
@@ -3703,19 +3703,19 @@
         <v>69757</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>59516</v>
+        <v>60196</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>77391</v>
+        <v>77386</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7513084264466328</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6410056969623561</v>
+        <v>0.6483237382407889</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8335285681457684</v>
+        <v>0.8334702597633084</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>61754</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>49273</v>
+        <v>48964</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>74961</v>
+        <v>74936</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3001340513807723</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2394729495436184</v>
+        <v>0.2379732798146698</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3643225392240828</v>
+        <v>0.3642014275223023</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>75</v>
@@ -3828,19 +3828,19 @@
         <v>82263</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>66732</v>
+        <v>66719</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>98840</v>
+        <v>98010</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2474982784923277</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2007713166570756</v>
+        <v>0.2007303761646843</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2973712842092169</v>
+        <v>0.2948728742931651</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>132</v>
@@ -3849,19 +3849,19 @@
         <v>144017</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>124889</v>
+        <v>122367</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>166486</v>
+        <v>166063</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2676234253424187</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2320781107462306</v>
+        <v>0.2273922281658733</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3093772435876291</v>
+        <v>0.3085912882524204</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>144000</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>130793</v>
+        <v>130818</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>156481</v>
+        <v>156790</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6998659486192277</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.635677460775917</v>
+        <v>0.6357985724776978</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7605270504563816</v>
+        <v>0.7620267201853302</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>234</v>
@@ -3899,19 +3899,19 @@
         <v>250117</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>233540</v>
+        <v>234370</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>265648</v>
+        <v>265661</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7525017215076722</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7026287157907832</v>
+        <v>0.7051271257068349</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7992286833429252</v>
+        <v>0.7992696238353157</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>368</v>
@@ -3920,19 +3920,19 @@
         <v>394117</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>371648</v>
+        <v>372071</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>413245</v>
+        <v>415767</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7323765746575813</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6906227564123706</v>
+        <v>0.6914087117475795</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7679218892537694</v>
+        <v>0.7726077718341265</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>9517</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4843</v>
+        <v>4888</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15160</v>
+        <v>15202</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3630630913658869</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1847699690940727</v>
+        <v>0.186468708028361</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5783763990324096</v>
+        <v>0.5799516574986464</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -4290,7 +4290,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7593</v>
+        <v>8654</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07655826438113954</v>
@@ -4299,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2342078891730975</v>
+        <v>0.2669285065932762</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -4308,19 +4308,19 @@
         <v>11999</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6334</v>
+        <v>7063</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19335</v>
+        <v>19744</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2046432589041975</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1080267233313409</v>
+        <v>0.1204600912238358</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3297719221417724</v>
+        <v>0.3367503776014972</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>16695</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11052</v>
+        <v>11010</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>21369</v>
+        <v>21324</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6369369086341131</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4216236009675905</v>
+        <v>0.420048342501354</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8152300309059268</v>
+        <v>0.813531291971639</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>29</v>
@@ -4358,7 +4358,7 @@
         <v>29938</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>24827</v>
+        <v>23766</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>32420</v>
@@ -4367,7 +4367,7 @@
         <v>0.9234417356188604</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7657921108269025</v>
+        <v>0.7330714934067226</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -4379,19 +4379,19 @@
         <v>46633</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>39297</v>
+        <v>38888</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>52298</v>
+        <v>51569</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7953567410958025</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6702280778582274</v>
+        <v>0.6632496223985027</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8919732766686591</v>
+        <v>0.8795399087761642</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>4005</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>980</v>
+        <v>945</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8397</v>
+        <v>8678</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.195061175367401</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04771519301396464</v>
+        <v>0.04602554522100274</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4089084966245313</v>
+        <v>0.4226133286379599</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -4504,19 +4504,19 @@
         <v>8366</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3577</v>
+        <v>3863</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>15273</v>
+        <v>14790</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2509243549944473</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1072878687962313</v>
+        <v>0.115869648138801</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.458126965345339</v>
+        <v>0.4436169449562619</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>11</v>
@@ -4525,19 +4525,19 @@
         <v>12371</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6438</v>
+        <v>6870</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>20597</v>
+        <v>20156</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2296318713576153</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1195123847941268</v>
+        <v>0.1275165218105593</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.382326861567732</v>
+        <v>0.3741465888273556</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>16529</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>12137</v>
+        <v>11856</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>19554</v>
+        <v>19589</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.804938824632599</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5910915033754687</v>
+        <v>0.5773866713620388</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9522848069860353</v>
+        <v>0.9539744547789972</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>25</v>
@@ -4575,19 +4575,19 @@
         <v>24973</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>18066</v>
+        <v>18549</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>29762</v>
+        <v>29476</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7490756450055527</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5418730346546609</v>
+        <v>0.5563830550437382</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8927121312037686</v>
+        <v>0.8841303518611991</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>40</v>
@@ -4596,19 +4596,19 @@
         <v>41501</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>33275</v>
+        <v>33716</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>47434</v>
+        <v>47002</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7703681286423847</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6176731384322681</v>
+        <v>0.6258534111726444</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8804876152058732</v>
+        <v>0.8724834781894406</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>10871</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5824</v>
+        <v>5985</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16807</v>
+        <v>16801</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3406827510609323</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1825022867616854</v>
+        <v>0.187547651148755</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5267107305671505</v>
+        <v>0.52650769005817</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -4721,19 +4721,19 @@
         <v>6909</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3114</v>
+        <v>2323</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11486</v>
+        <v>11196</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4319975148092499</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1946888932747603</v>
+        <v>0.1452771772291603</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7182117762733174</v>
+        <v>0.7000280378227057</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>16</v>
@@ -4742,19 +4742,19 @@
         <v>17780</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11514</v>
+        <v>10652</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>25293</v>
+        <v>24805</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3711687631812904</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2403562217439027</v>
+        <v>0.2223746767726406</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5280065586998434</v>
+        <v>0.5178153858127937</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>21039</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>15103</v>
+        <v>15109</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>26086</v>
+        <v>25925</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6593172489390676</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4732892694328495</v>
+        <v>0.4734923099418302</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8174977132383149</v>
+        <v>0.8124523488512453</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>7</v>
@@ -4792,19 +4792,19 @@
         <v>9084</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4507</v>
+        <v>4797</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>12879</v>
+        <v>13670</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.56800248519075</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2817882237266825</v>
+        <v>0.2999719621772947</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8053111067252396</v>
+        <v>0.8547228227708398</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>28</v>
@@ -4813,19 +4813,19 @@
         <v>30123</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>22610</v>
+        <v>23098</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>36389</v>
+        <v>37251</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6288312368187097</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4719934413001566</v>
+        <v>0.482184614187206</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7596437782560973</v>
+        <v>0.7776253232273597</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>21122</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14328</v>
+        <v>14326</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>29361</v>
+        <v>29039</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3989960101279638</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2706580686513129</v>
+        <v>0.27061618915452</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5546418597164255</v>
+        <v>0.5485656048209397</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>14</v>
@@ -4938,19 +4938,19 @@
         <v>14591</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8389</v>
+        <v>8805</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>22661</v>
+        <v>22825</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1950080742249284</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1121135631725215</v>
+        <v>0.1176840158930038</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3028658177693597</v>
+        <v>0.3050598456467374</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>33</v>
@@ -4959,19 +4959,19 @@
         <v>35713</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>26256</v>
+        <v>25185</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>46232</v>
+        <v>47085</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2795293867146132</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2055130846447843</v>
+        <v>0.1971290768884207</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.361864195942089</v>
+        <v>0.3685398240598833</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>31815</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>23576</v>
+        <v>23898</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>38609</v>
+        <v>38611</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6010039898720363</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4453581402835748</v>
+        <v>0.4514343951790603</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7293419313486872</v>
+        <v>0.7293838108454801</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>57</v>
@@ -5009,19 +5009,19 @@
         <v>60232</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>52162</v>
+        <v>51998</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>66434</v>
+        <v>66018</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8049919257750716</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6971341822306402</v>
+        <v>0.6949401543532626</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.887886436827478</v>
+        <v>0.8823159841069962</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>89</v>
@@ -5030,19 +5030,19 @@
         <v>92047</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>81528</v>
+        <v>80675</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>101504</v>
+        <v>102575</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7204706132853868</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.638135804057911</v>
+        <v>0.6314601759401166</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7944869153552157</v>
+        <v>0.8028709231115793</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>8148</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3753</v>
+        <v>4178</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13158</v>
+        <v>13167</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3727924869763541</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1717065181119077</v>
+        <v>0.1911585705539017</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.601968053801089</v>
+        <v>0.6023830604220605</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>18</v>
@@ -5155,19 +5155,19 @@
         <v>18793</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12046</v>
+        <v>12519</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>25515</v>
+        <v>25659</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4022658844261285</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2578591541776011</v>
+        <v>0.2679755449819675</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.546150596401628</v>
+        <v>0.5492364578111623</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>26</v>
@@ -5176,19 +5176,19 @@
         <v>26941</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>18115</v>
+        <v>19804</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>34537</v>
+        <v>35089</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3928713592899385</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2641698390438985</v>
+        <v>0.2888040511106401</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5036422966649885</v>
+        <v>0.5116881536000734</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>13710</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8700</v>
+        <v>8691</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>18105</v>
+        <v>17680</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.627207513023646</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3980319461989112</v>
+        <v>0.3976169395779397</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.828293481888092</v>
+        <v>0.8088414294460982</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>25</v>
@@ -5226,19 +5226,19 @@
         <v>27924</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>21202</v>
+        <v>21058</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>34671</v>
+        <v>34198</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5977341155738715</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.453849403598372</v>
+        <v>0.4507635421888379</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7421408458223989</v>
+        <v>0.7320244550180328</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>38</v>
@@ -5247,19 +5247,19 @@
         <v>41633</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>34037</v>
+        <v>33485</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>50459</v>
+        <v>48770</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6071286407100615</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4963577033350114</v>
+        <v>0.4883118463999268</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7358301609561014</v>
+        <v>0.71119594888936</v>
       </c>
     </row>
     <row r="18">
@@ -5354,7 +5354,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4380</v>
+        <v>5096</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1205345061833258</v>
@@ -5363,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4853039177444624</v>
+        <v>0.5645936404233063</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>12</v>
@@ -5372,19 +5372,19 @@
         <v>14507</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7780</v>
+        <v>7821</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>22582</v>
+        <v>22688</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2190042652170192</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1174538024075762</v>
+        <v>0.1180669758215991</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3409203687901893</v>
+        <v>0.3425133238450132</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>13</v>
@@ -5393,19 +5393,19 @@
         <v>15595</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>8971</v>
+        <v>8801</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>23438</v>
+        <v>24393</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2071950079149353</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.119195237886471</v>
+        <v>0.1169272304486684</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3113959232335304</v>
+        <v>0.3240943655473543</v>
       </c>
     </row>
     <row r="20">
@@ -5422,7 +5422,7 @@
         <v>7938</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4646</v>
+        <v>3930</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>9026</v>
@@ -5431,7 +5431,7 @@
         <v>0.8794654938166743</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5146960822555374</v>
+        <v>0.4354063595767021</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -5443,19 +5443,19 @@
         <v>51732</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>43657</v>
+        <v>43551</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>58459</v>
+        <v>58418</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7809957347829808</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6590796312098106</v>
+        <v>0.6574866761549869</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8825461975924237</v>
+        <v>0.881933024178401</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>53</v>
@@ -5464,19 +5464,19 @@
         <v>59671</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>51828</v>
+        <v>50873</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>66295</v>
+        <v>66465</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7928049920850647</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6886040767664696</v>
+        <v>0.6759056344526454</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8808047621135291</v>
+        <v>0.8830727695513315</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>54751</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>42649</v>
+        <v>43041</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>66307</v>
+        <v>67977</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3369781723023659</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2624940483578942</v>
+        <v>0.264902479549987</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4081006630758622</v>
+        <v>0.4183779958695406</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>59</v>
@@ -5589,19 +5589,19 @@
         <v>65647</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>51785</v>
+        <v>52095</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>81895</v>
+        <v>81309</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2435591731291409</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1921303480164307</v>
+        <v>0.1932809052918325</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3038407881599366</v>
+        <v>0.3016669912027148</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>110</v>
@@ -5610,19 +5610,19 @@
         <v>120398</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>101529</v>
+        <v>101698</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>139655</v>
+        <v>141036</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2786938489210258</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2350172219506103</v>
+        <v>0.2354083753650303</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3232685664287526</v>
+        <v>0.3264660617577071</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>107726</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>96170</v>
+        <v>94500</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>119828</v>
+        <v>119436</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6630218276976342</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5918993369241378</v>
+        <v>0.5816220041304593</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7375059516421061</v>
+        <v>0.735097520450013</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>188</v>
@@ -5660,19 +5660,19 @@
         <v>203884</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>187636</v>
+        <v>188222</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>217746</v>
+        <v>217436</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7564408268708591</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6961592118400635</v>
+        <v>0.6983330087972852</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8078696519835695</v>
+        <v>0.8067190947081676</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>291</v>
@@ -5681,19 +5681,19 @@
         <v>311610</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>292353</v>
+        <v>290972</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>330479</v>
+        <v>330310</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7213061510789742</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6767314335712474</v>
+        <v>0.6735339382422929</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7649827780493899</v>
+        <v>0.7645916246349697</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>13925</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8927</v>
+        <v>9089</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19473</v>
+        <v>20370</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.425259967640242</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2726254873869681</v>
+        <v>0.2775823756479684</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5947175761985071</v>
+        <v>0.6220975504568633</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -6048,19 +6048,19 @@
         <v>3779</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1429</v>
+        <v>1418</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7312</v>
+        <v>7823</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.1039633550271337</v>
+        <v>0.1039633550271336</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03930198262519216</v>
+        <v>0.03901650266927658</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2011337446486852</v>
+        <v>0.2151996521021997</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>21</v>
@@ -6069,19 +6069,19 @@
         <v>17704</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>11862</v>
+        <v>11472</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>25948</v>
+        <v>26137</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2562209336963316</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1716662189359147</v>
+        <v>0.166023787073606</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3755301255500679</v>
+        <v>0.3782676247000052</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>18819</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>13271</v>
+        <v>12374</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>23817</v>
+        <v>23655</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.574740032359758</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4052824238014928</v>
+        <v>0.3779024495431367</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7273745126130313</v>
+        <v>0.7224176243520316</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>40</v>
@@ -6119,19 +6119,19 @@
         <v>32574</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>29041</v>
+        <v>28530</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>34924</v>
+        <v>34935</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8960366449728664</v>
+        <v>0.8960366449728662</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7988662553513146</v>
+        <v>0.7848003478978001</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9606980173748078</v>
+        <v>0.9609834973307235</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>61</v>
@@ -6140,19 +6140,19 @@
         <v>51393</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>43149</v>
+        <v>42960</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>57235</v>
+        <v>57625</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7437790663036684</v>
+        <v>0.7437790663036685</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6244698744499322</v>
+        <v>0.6217323752999949</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8283337810640854</v>
+        <v>0.833976212926394</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>7716</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3972</v>
+        <v>3684</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12695</v>
+        <v>12496</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3288231716153951</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1692702475751165</v>
+        <v>0.156965693453753</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.540957236025208</v>
+        <v>0.5324783475065525</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -6265,19 +6265,19 @@
         <v>9799</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5623</v>
+        <v>5546</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>15257</v>
+        <v>15436</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.295012811705644</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1692809493510142</v>
+        <v>0.1669763020707976</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4593395005509925</v>
+        <v>0.4647061879226837</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>22</v>
@@ -6286,19 +6286,19 @@
         <v>17516</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11119</v>
+        <v>11871</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>24553</v>
+        <v>24414</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.309010363413958</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1961539457894205</v>
+        <v>0.2094197428013349</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4331659025408592</v>
+        <v>0.4307104114173586</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>15751</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>10772</v>
+        <v>10971</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>19495</v>
+        <v>19783</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.671176828384605</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4590427639747922</v>
+        <v>0.4675216524934468</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8307297524248837</v>
+        <v>0.8430343065462468</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>31</v>
@@ -6336,19 +6336,19 @@
         <v>23417</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>17959</v>
+        <v>17780</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>27593</v>
+        <v>27670</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7049871882943559</v>
+        <v>0.704987188294356</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5406604994490076</v>
+        <v>0.5352938120773161</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8307190506489857</v>
+        <v>0.8330236979292025</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>49</v>
@@ -6357,19 +6357,19 @@
         <v>39167</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>32130</v>
+        <v>32269</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>45564</v>
+        <v>44812</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.690989636586042</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5668340974591409</v>
+        <v>0.5692895885826412</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8038460542105794</v>
+        <v>0.7905802571986651</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>17659</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12046</v>
+        <v>11161</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24154</v>
+        <v>23716</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.4781370349142367</v>
+        <v>0.4781370349142365</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3261763642222625</v>
+        <v>0.3021983187096211</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6540009455473647</v>
+        <v>0.6421640200637994</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -6482,19 +6482,19 @@
         <v>4711</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1892</v>
+        <v>1677</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8557</v>
+        <v>8705</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2566953057142224</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1031030440581673</v>
+        <v>0.09138296594560238</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4662604124952529</v>
+        <v>0.4743562184039468</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>25</v>
@@ -6503,19 +6503,19 @@
         <v>22370</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>15369</v>
+        <v>14483</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>29637</v>
+        <v>29157</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4046270716801936</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2779911249692566</v>
+        <v>0.2619641764463426</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5360698875480736</v>
+        <v>0.5273975559941825</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>19273</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>12778</v>
+        <v>13216</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>24886</v>
+        <v>25771</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.5218629650857638</v>
+        <v>0.5218629650857635</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3459990544526356</v>
+        <v>0.3578359799362005</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6738236357777376</v>
+        <v>0.6978016812903783</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>17</v>
@@ -6553,19 +6553,19 @@
         <v>13641</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>9795</v>
+        <v>9647</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>16460</v>
+        <v>16675</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7433046942857776</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5337395875047468</v>
+        <v>0.5256437815960527</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8968969559418326</v>
+        <v>0.9086170340543978</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>37</v>
@@ -6574,19 +6574,19 @@
         <v>32915</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>25648</v>
+        <v>26128</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>39916</v>
+        <v>40802</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.5953729283198064</v>
+        <v>0.5953729283198066</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4639301124519266</v>
+        <v>0.4726024440058178</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7220088750307432</v>
+        <v>0.7380358235536575</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>14435</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9019</v>
+        <v>8829</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>22237</v>
+        <v>21902</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.229199859427328</v>
+        <v>0.2291998594273279</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1432125818787699</v>
+        <v>0.1401908673120617</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3530930428607295</v>
+        <v>0.3477695628714157</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -6699,19 +6699,19 @@
         <v>10534</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5992</v>
+        <v>6187</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>16231</v>
+        <v>16262</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.176188330421621</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.100226435476786</v>
+        <v>0.1034871949897346</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2714770877432165</v>
+        <v>0.2719827444325744</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>35</v>
@@ -6720,19 +6720,19 @@
         <v>24969</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>17995</v>
+        <v>17505</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>34308</v>
+        <v>34691</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2033828326648752</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1465797040812384</v>
+        <v>0.1425845300130542</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.279459234283455</v>
+        <v>0.2825775403265322</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>48544</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>40742</v>
+        <v>41077</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>53960</v>
+        <v>54150</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7708001405726721</v>
+        <v>0.770800140572672</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6469069571392698</v>
+        <v>0.6522304371285845</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8567874181212299</v>
+        <v>0.8598091326879381</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>67</v>
@@ -6770,19 +6770,19 @@
         <v>49255</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>43558</v>
+        <v>43527</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>53797</v>
+        <v>53602</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.823811669578379</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7285229122567831</v>
+        <v>0.7280172555674254</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.899773564523214</v>
+        <v>0.896512805010265</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>118</v>
@@ -6791,19 +6791,19 @@
         <v>97798</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>88459</v>
+        <v>88076</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>104772</v>
+        <v>105262</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7966171673351249</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7205407657165449</v>
+        <v>0.7174224596734678</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8534202959187617</v>
+        <v>0.857415469986946</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>13960</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8430</v>
+        <v>8151</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19968</v>
+        <v>20622</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3165540609800934</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1911553382622733</v>
+        <v>0.1848370897741725</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4527946396148378</v>
+        <v>0.4676270080893656</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>25</v>
@@ -6916,19 +6916,19 @@
         <v>15535</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10403</v>
+        <v>10287</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21402</v>
+        <v>20825</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.3319846789817471</v>
+        <v>0.3319846789817472</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2223171760156935</v>
+        <v>0.2198250601500425</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.457355638683197</v>
+        <v>0.445034613668495</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>40</v>
@@ -6937,19 +6937,19 @@
         <v>29495</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>21251</v>
+        <v>22420</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>37818</v>
+        <v>38163</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3244981049193695</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2337922250236824</v>
+        <v>0.2466563124527715</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4160592695745647</v>
+        <v>0.4198527343397482</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>30140</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>24132</v>
+        <v>23478</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>35670</v>
+        <v>35949</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6834459390199067</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5472053603851623</v>
+        <v>0.5323729919106343</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8088446617377267</v>
+        <v>0.8151629102258273</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>47</v>
@@ -6987,19 +6987,19 @@
         <v>31260</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>25393</v>
+        <v>25970</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>36392</v>
+        <v>36508</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6680153210182528</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5426443613168027</v>
+        <v>0.5549653863315048</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7776828239843064</v>
+        <v>0.7801749398499574</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>84</v>
@@ -7008,19 +7008,19 @@
         <v>61400</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>53077</v>
+        <v>52732</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>69644</v>
+        <v>68475</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6755018950806305</v>
+        <v>0.6755018950806304</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5839407304254353</v>
+        <v>0.5801472656602505</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7662077749763175</v>
+        <v>0.7533436875472269</v>
       </c>
     </row>
     <row r="18">
@@ -7115,16 +7115,16 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>3107</v>
+        <v>4065</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.1219839873583369</v>
+        <v>0.1219839873583368</v>
       </c>
       <c r="H19" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7468298073023176</v>
+        <v>0.9771024082036415</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>14</v>
@@ -7133,19 +7133,19 @@
         <v>10809</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5944</v>
+        <v>6011</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>20940</v>
+        <v>19647</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2462702504689579</v>
+        <v>0.246270250468958</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1354253079006054</v>
+        <v>0.13695008275207</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4770942872395968</v>
+        <v>0.4476259136172059</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>15</v>
@@ -7154,19 +7154,19 @@
         <v>11317</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>6398</v>
+        <v>6142</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>20820</v>
+        <v>20359</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2355108140967672</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1331604466256377</v>
+        <v>0.1278170683183625</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.433296381426842</v>
+        <v>0.4236895885624093</v>
       </c>
     </row>
     <row r="20">
@@ -7183,16 +7183,16 @@
         <v>3653</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1053</v>
+        <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>4160</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8780160126416633</v>
+        <v>0.8780160126416631</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2531701926976823</v>
+        <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -7204,19 +7204,19 @@
         <v>33082</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>22951</v>
+        <v>24244</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>37947</v>
+        <v>37880</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7537297495310419</v>
+        <v>0.7537297495310421</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5229057127604029</v>
+        <v>0.5523740863827941</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8645746920993946</v>
+        <v>0.8630499172479298</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>55</v>
@@ -7225,19 +7225,19 @@
         <v>36734</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>27231</v>
+        <v>27692</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>41653</v>
+        <v>41909</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7644891859032328</v>
+        <v>0.7644891859032329</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5667036185731582</v>
+        <v>0.5763104114375903</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8668395533743622</v>
+        <v>0.8721829316816376</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>68202</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>54115</v>
+        <v>55383</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>82818</v>
+        <v>82797</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.3336994645254612</v>
+        <v>0.3336994645254611</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2647722476231597</v>
+        <v>0.2709791244189224</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4052119248047779</v>
+        <v>0.405109617880886</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>81</v>
@@ -7350,19 +7350,19 @@
         <v>55168</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>43096</v>
+        <v>44548</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>67443</v>
+        <v>68340</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2314125438046657</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1807758501797577</v>
+        <v>0.1868668960598853</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2829046132932203</v>
+        <v>0.2866639145316762</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>158</v>
@@ -7371,19 +7371,19 @@
         <v>123370</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>104800</v>
+        <v>105608</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>143020</v>
+        <v>143976</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.2786271721767116</v>
+        <v>0.2786271721767117</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2366873168325379</v>
+        <v>0.2385126399581943</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3230070694173224</v>
+        <v>0.3251657197417513</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>136180</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>121564</v>
+        <v>121585</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>150267</v>
+        <v>148999</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.6663005354745388</v>
+        <v>0.6663005354745387</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5947880751952238</v>
+        <v>0.5948903821191142</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7352277523768403</v>
+        <v>0.7290208755810774</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>254</v>
@@ -7421,19 +7421,19 @@
         <v>183228</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>170953</v>
+        <v>170056</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>195300</v>
+        <v>193848</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7685874561953342</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7170953867067796</v>
+        <v>0.7133360854683238</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8192241498202425</v>
+        <v>0.8131331039401148</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>404</v>
@@ -7442,19 +7442,19 @@
         <v>319407</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>299757</v>
+        <v>298801</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>337977</v>
+        <v>337169</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.7213728278232883</v>
+        <v>0.7213728278232884</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6769929305826761</v>
+        <v>0.6748342802582487</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7633126831674615</v>
+        <v>0.7614873600418053</v>
       </c>
     </row>
     <row r="24">
